--- a/src/main/resources/123-madao_service/authentication-server_attribute.xlsx
+++ b/src/main/resources/123-madao_service/authentication-server_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="301">
   <si>
     <t>类名</t>
   </si>
@@ -891,6 +891,12 @@
     <t>com.madao.auth.controller.AuthorizationController</t>
   </si>
   <si>
+    <t>decide(java.lang.String,java.lang.String,javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>java.lang.String,java.lang.String,javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
     <t>public</t>
   </si>
   <si>
@@ -900,10 +906,16 @@
     <t>com.madao.auth.controller.AuthenticationController</t>
   </si>
   <si>
-    <t>logout(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>createCode(javax.servlet.http.HttpServletRequest)</t>
+    <t>logout(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse</t>
+  </si>
+  <si>
+    <t>createCode(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String</t>
   </si>
 </sst>
 </file>
@@ -3641,47 +3653,47 @@
         <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
         <v>294</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>295</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
         <v>294</v>
-      </c>
-      <c r="B4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>292</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
